--- a/biology/Zoologie/Hednota_bivittella/Hednota_bivittella.xlsx
+++ b/biology/Zoologie/Hednota_bivittella/Hednota_bivittella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hednota bivittella est une espèce de lépidoptères (papillons) de la famille des Crambidae. On la trouve dans la plus grande partie de l'Australie, y compris en Tasmanie.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'état de chenille, sa longueur est de 1,5 à 2 cm[2],[3] ; elle est de couleur brun sombre, avec une tête plus sombre et des tâches dans le dos[3].
-Sous sa forme adulte, le papillon a des ailes brunes, chacune comportant deux raies blanches[3],[2]. Sa longueur est d'environ 1 cm avec une envergure de 2 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'état de chenille, sa longueur est de 1,5 à 2 cm, ; elle est de couleur brun sombre, avec une tête plus sombre et des tâches dans le dos.
+Sous sa forme adulte, le papillon a des ailes brunes, chacune comportant deux raies blanches,. Sa longueur est d'environ 1 cm avec une envergure de 2 cm.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se nourrit de la tige des plantes[2].
-Le papillon se repose la journée dans l'herbe, et se déplace la nuit[2].
-La chenille tisse des toiles par terre et vit à l'intérieur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se nourrit de la tige des plantes.
+Le papillon se repose la journée dans l'herbe, et se déplace la nuit.
+La chenille tisse des toiles par terre et vit à l'intérieur.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée en Australie dans les états de Nouvelle-Galles du Sud, du Queensland, du Victoria, d'Australie-Occidentale et de Tasmanie[3], ainsi qu'en Australie-Méridionale, près de la frontière du Victoria[4].
-On trouve cette espèce dans les champs et prairies[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée en Australie dans les états de Nouvelle-Galles du Sud, du Queensland, du Victoria, d'Australie-Occidentale et de Tasmanie, ainsi qu'en Australie-Méridionale, près de la frontière du Victoria.
+On trouve cette espèce dans les champs et prairies.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>L'espèce et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille est parfois considérée comme nuisible par les agriculteurs[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est parfois considérée comme nuisible par les agriculteurs.
 </t>
         </is>
       </c>
